--- a/Table/Table_xls/x循环任务/x循环任务-任性一下花费.xlsx
+++ b/Table/Table_xls/x循环任务/x循环任务-任性一下花费.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26025" windowHeight="15300"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,14 +93,37 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -113,23 +136,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,7 +152,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,13 +204,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -188,7 +213,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -196,16 +221,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,32 +243,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,175 +270,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +286,174 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -464,11 +464,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -488,6 +494,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -503,36 +518,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -561,6 +550,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -569,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,133 +581,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B2" sqref="B2:B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1091,13 +1091,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>50</v>
+        <v>30000</v>
       </c>
       <c r="C2">
         <v>10000</v>
       </c>
       <c r="D2">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1105,13 +1105,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>30000</v>
       </c>
       <c r="C3">
         <v>10000</v>
       </c>
       <c r="D3">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1119,13 +1119,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>110</v>
+        <v>30000</v>
       </c>
       <c r="C4">
         <v>10000</v>
       </c>
       <c r="D4">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1133,13 +1133,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>140</v>
+        <v>30000</v>
       </c>
       <c r="C5">
         <v>10000</v>
       </c>
       <c r="D5">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1147,13 +1147,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>170</v>
+        <v>30000</v>
       </c>
       <c r="C6">
         <v>10000</v>
       </c>
       <c r="D6">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1161,13 +1161,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>200</v>
+        <v>30000</v>
       </c>
       <c r="C7">
         <v>10000</v>
       </c>
       <c r="D7">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1175,13 +1175,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>230</v>
+        <v>30000</v>
       </c>
       <c r="C8">
         <v>10000</v>
       </c>
       <c r="D8">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1189,13 +1189,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>260</v>
+        <v>30000</v>
       </c>
       <c r="C9">
         <v>10000</v>
       </c>
       <c r="D9">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1203,13 +1203,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>290</v>
+        <v>30000</v>
       </c>
       <c r="C10">
         <v>10000</v>
       </c>
       <c r="D10">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1217,13 +1217,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>320</v>
+        <v>30000</v>
       </c>
       <c r="C11">
         <v>10000</v>
       </c>
       <c r="D11">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1231,13 +1231,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>350</v>
+        <v>30000</v>
       </c>
       <c r="C12">
         <v>10000</v>
       </c>
       <c r="D12">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1245,13 +1245,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>380</v>
+        <v>30000</v>
       </c>
       <c r="C13">
         <v>10000</v>
       </c>
       <c r="D13">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1259,13 +1259,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>410</v>
+        <v>30000</v>
       </c>
       <c r="C14">
         <v>10000</v>
       </c>
       <c r="D14">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1273,13 +1273,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>440</v>
+        <v>30000</v>
       </c>
       <c r="C15">
         <v>10000</v>
       </c>
       <c r="D15">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1287,13 +1287,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>470</v>
+        <v>30000</v>
       </c>
       <c r="C16">
         <v>10000</v>
       </c>
       <c r="D16">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1301,13 +1301,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>500</v>
+        <v>30000</v>
       </c>
       <c r="C17">
         <v>10000</v>
       </c>
       <c r="D17">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1315,13 +1315,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>530</v>
+        <v>30000</v>
       </c>
       <c r="C18">
         <v>10000</v>
       </c>
       <c r="D18">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1329,13 +1329,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>560</v>
+        <v>30000</v>
       </c>
       <c r="C19">
         <v>10000</v>
       </c>
       <c r="D19">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1343,13 +1343,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>590</v>
+        <v>30000</v>
       </c>
       <c r="C20">
         <v>10000</v>
       </c>
       <c r="D20">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1357,13 +1357,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>620</v>
+        <v>30000</v>
       </c>
       <c r="C21">
         <v>10000</v>
       </c>
       <c r="D21">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1371,13 +1371,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>650</v>
+        <v>30000</v>
       </c>
       <c r="C22">
         <v>10000</v>
       </c>
       <c r="D22">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1385,13 +1385,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>680</v>
+        <v>30000</v>
       </c>
       <c r="C23">
         <v>10000</v>
       </c>
       <c r="D23">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1399,13 +1399,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>710</v>
+        <v>30000</v>
       </c>
       <c r="C24">
         <v>10000</v>
       </c>
       <c r="D24">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1413,13 +1413,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>740</v>
+        <v>30000</v>
       </c>
       <c r="C25">
         <v>10000</v>
       </c>
       <c r="D25">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1427,13 +1427,13 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>770</v>
+        <v>30000</v>
       </c>
       <c r="C26">
         <v>10000</v>
       </c>
       <c r="D26">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1441,13 +1441,13 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>800</v>
+        <v>30000</v>
       </c>
       <c r="C27">
         <v>10000</v>
       </c>
       <c r="D27">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1455,13 +1455,13 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>830</v>
+        <v>30000</v>
       </c>
       <c r="C28">
         <v>10000</v>
       </c>
       <c r="D28">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1469,13 +1469,13 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>860</v>
+        <v>30000</v>
       </c>
       <c r="C29">
         <v>10000</v>
       </c>
       <c r="D29">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1483,13 +1483,13 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>890</v>
+        <v>30000</v>
       </c>
       <c r="C30">
         <v>10000</v>
       </c>
       <c r="D30">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1497,13 +1497,13 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>920</v>
+        <v>30000</v>
       </c>
       <c r="C31">
         <v>10000</v>
       </c>
       <c r="D31">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1511,13 +1511,13 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>950</v>
+        <v>30000</v>
       </c>
       <c r="C32">
         <v>10000</v>
       </c>
       <c r="D32">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1525,13 +1525,13 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>980</v>
+        <v>30000</v>
       </c>
       <c r="C33">
         <v>10000</v>
       </c>
       <c r="D33">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1539,13 +1539,13 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>1010</v>
+        <v>30000</v>
       </c>
       <c r="C34">
         <v>10000</v>
       </c>
       <c r="D34">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1553,13 +1553,13 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1040</v>
+        <v>30000</v>
       </c>
       <c r="C35">
         <v>10000</v>
       </c>
       <c r="D35">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1567,13 +1567,13 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>1070</v>
+        <v>30000</v>
       </c>
       <c r="C36">
         <v>10000</v>
       </c>
       <c r="D36">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1581,13 +1581,13 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>1100</v>
+        <v>30000</v>
       </c>
       <c r="C37">
         <v>10000</v>
       </c>
       <c r="D37">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1595,13 +1595,13 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1130</v>
+        <v>30000</v>
       </c>
       <c r="C38">
         <v>10000</v>
       </c>
       <c r="D38">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1609,13 +1609,13 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1160</v>
+        <v>30000</v>
       </c>
       <c r="C39">
         <v>10000</v>
       </c>
       <c r="D39">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1623,13 +1623,13 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>1190</v>
+        <v>30000</v>
       </c>
       <c r="C40">
         <v>10000</v>
       </c>
       <c r="D40">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1637,13 +1637,13 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>1220</v>
+        <v>30000</v>
       </c>
       <c r="C41">
         <v>10000</v>
       </c>
       <c r="D41">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1651,13 +1651,13 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>1250</v>
+        <v>30000</v>
       </c>
       <c r="C42">
         <v>10000</v>
       </c>
       <c r="D42">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1665,13 +1665,13 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1280</v>
+        <v>30000</v>
       </c>
       <c r="C43">
         <v>10000</v>
       </c>
       <c r="D43">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1679,13 +1679,13 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>1310</v>
+        <v>30000</v>
       </c>
       <c r="C44">
         <v>10000</v>
       </c>
       <c r="D44">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1693,13 +1693,13 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>1340</v>
+        <v>30000</v>
       </c>
       <c r="C45">
         <v>10000</v>
       </c>
       <c r="D45">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1707,13 +1707,13 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>1370</v>
+        <v>30000</v>
       </c>
       <c r="C46">
         <v>10000</v>
       </c>
       <c r="D46">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1721,13 +1721,13 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>1400</v>
+        <v>30000</v>
       </c>
       <c r="C47">
         <v>10000</v>
       </c>
       <c r="D47">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1735,13 +1735,13 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>1430</v>
+        <v>30000</v>
       </c>
       <c r="C48">
         <v>10000</v>
       </c>
       <c r="D48">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1749,13 +1749,13 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1460</v>
+        <v>30000</v>
       </c>
       <c r="C49">
         <v>10000</v>
       </c>
       <c r="D49">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1763,13 +1763,13 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>1490</v>
+        <v>30000</v>
       </c>
       <c r="C50">
         <v>10000</v>
       </c>
       <c r="D50">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1777,13 +1777,13 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>1520</v>
+        <v>30000</v>
       </c>
       <c r="C51">
         <v>10000</v>
       </c>
       <c r="D51">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1791,13 +1791,13 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1550</v>
+        <v>30000</v>
       </c>
       <c r="C52">
         <v>10000</v>
       </c>
       <c r="D52">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1805,13 +1805,13 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1580</v>
+        <v>30000</v>
       </c>
       <c r="C53">
         <v>10000</v>
       </c>
       <c r="D53">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1819,13 +1819,13 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1610</v>
+        <v>30000</v>
       </c>
       <c r="C54">
         <v>10000</v>
       </c>
       <c r="D54">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1833,13 +1833,13 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1640</v>
+        <v>30000</v>
       </c>
       <c r="C55">
         <v>10000</v>
       </c>
       <c r="D55">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1847,13 +1847,13 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1670</v>
+        <v>30000</v>
       </c>
       <c r="C56">
         <v>10000</v>
       </c>
       <c r="D56">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1861,13 +1861,13 @@
         <v>56</v>
       </c>
       <c r="B57">
-        <v>1700</v>
+        <v>30000</v>
       </c>
       <c r="C57">
         <v>10000</v>
       </c>
       <c r="D57">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1875,13 +1875,13 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>1730</v>
+        <v>30000</v>
       </c>
       <c r="C58">
         <v>10000</v>
       </c>
       <c r="D58">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1889,13 +1889,13 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>1760</v>
+        <v>30000</v>
       </c>
       <c r="C59">
         <v>10000</v>
       </c>
       <c r="D59">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1903,13 +1903,13 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>1790</v>
+        <v>30000</v>
       </c>
       <c r="C60">
         <v>10000</v>
       </c>
       <c r="D60">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1917,13 +1917,13 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>1820</v>
+        <v>30000</v>
       </c>
       <c r="C61">
         <v>10000</v>
       </c>
       <c r="D61">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1931,13 +1931,13 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>1850</v>
+        <v>30000</v>
       </c>
       <c r="C62">
         <v>10000</v>
       </c>
       <c r="D62">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1945,13 +1945,13 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>1880</v>
+        <v>30000</v>
       </c>
       <c r="C63">
         <v>10000</v>
       </c>
       <c r="D63">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1959,13 +1959,13 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>1910</v>
+        <v>30000</v>
       </c>
       <c r="C64">
         <v>10000</v>
       </c>
       <c r="D64">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1973,13 +1973,13 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>1940</v>
+        <v>30000</v>
       </c>
       <c r="C65">
         <v>10000</v>
       </c>
       <c r="D65">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1987,13 +1987,13 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>1970</v>
+        <v>30000</v>
       </c>
       <c r="C66">
         <v>10000</v>
       </c>
       <c r="D66">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2001,13 +2001,13 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>2000</v>
+        <v>30000</v>
       </c>
       <c r="C67">
         <v>10000</v>
       </c>
       <c r="D67">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2015,13 +2015,13 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>2030</v>
+        <v>30000</v>
       </c>
       <c r="C68">
         <v>10000</v>
       </c>
       <c r="D68">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2029,13 +2029,13 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>2060</v>
+        <v>30000</v>
       </c>
       <c r="C69">
         <v>10000</v>
       </c>
       <c r="D69">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2043,13 +2043,13 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>2090</v>
+        <v>30000</v>
       </c>
       <c r="C70">
         <v>10000</v>
       </c>
       <c r="D70">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2057,13 +2057,13 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>2120</v>
+        <v>30000</v>
       </c>
       <c r="C71">
         <v>10000</v>
       </c>
       <c r="D71">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2071,13 +2071,13 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>2150</v>
+        <v>30000</v>
       </c>
       <c r="C72">
         <v>10000</v>
       </c>
       <c r="D72">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2085,13 +2085,13 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>2180</v>
+        <v>30000</v>
       </c>
       <c r="C73">
         <v>10000</v>
       </c>
       <c r="D73">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2099,13 +2099,13 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>2210</v>
+        <v>30000</v>
       </c>
       <c r="C74">
         <v>10000</v>
       </c>
       <c r="D74">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2113,13 +2113,13 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2240</v>
+        <v>30000</v>
       </c>
       <c r="C75">
         <v>10000</v>
       </c>
       <c r="D75">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2127,13 +2127,13 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>2270</v>
+        <v>30000</v>
       </c>
       <c r="C76">
         <v>10000</v>
       </c>
       <c r="D76">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2141,13 +2141,13 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>2300</v>
+        <v>30000</v>
       </c>
       <c r="C77">
         <v>10000</v>
       </c>
       <c r="D77">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2155,13 +2155,13 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>2330</v>
+        <v>30000</v>
       </c>
       <c r="C78">
         <v>10000</v>
       </c>
       <c r="D78">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2169,13 +2169,13 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2360</v>
+        <v>30000</v>
       </c>
       <c r="C79">
         <v>10000</v>
       </c>
       <c r="D79">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2183,13 +2183,13 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>2390</v>
+        <v>30000</v>
       </c>
       <c r="C80">
         <v>10000</v>
       </c>
       <c r="D80">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2197,13 +2197,13 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>2420</v>
+        <v>30000</v>
       </c>
       <c r="C81">
         <v>10000</v>
       </c>
       <c r="D81">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2211,13 +2211,13 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>2450</v>
+        <v>30000</v>
       </c>
       <c r="C82">
         <v>10000</v>
       </c>
       <c r="D82">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2225,13 +2225,13 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2480</v>
+        <v>30000</v>
       </c>
       <c r="C83">
         <v>10000</v>
       </c>
       <c r="D83">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2239,13 +2239,13 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>2510</v>
+        <v>30000</v>
       </c>
       <c r="C84">
         <v>10000</v>
       </c>
       <c r="D84">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2253,13 +2253,13 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>2540</v>
+        <v>30000</v>
       </c>
       <c r="C85">
         <v>10000</v>
       </c>
       <c r="D85">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2267,13 +2267,13 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>2570</v>
+        <v>30000</v>
       </c>
       <c r="C86">
         <v>10000</v>
       </c>
       <c r="D86">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2281,13 +2281,13 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2600</v>
+        <v>30000</v>
       </c>
       <c r="C87">
         <v>10000</v>
       </c>
       <c r="D87">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2295,13 +2295,13 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>2630</v>
+        <v>30000</v>
       </c>
       <c r="C88">
         <v>10000</v>
       </c>
       <c r="D88">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2309,13 +2309,13 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>2660</v>
+        <v>30000</v>
       </c>
       <c r="C89">
         <v>10000</v>
       </c>
       <c r="D89">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2323,13 +2323,13 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>2690</v>
+        <v>30000</v>
       </c>
       <c r="C90">
         <v>10000</v>
       </c>
       <c r="D90">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2337,13 +2337,13 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>2720</v>
+        <v>30000</v>
       </c>
       <c r="C91">
         <v>10000</v>
       </c>
       <c r="D91">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2351,13 +2351,13 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>2750</v>
+        <v>30000</v>
       </c>
       <c r="C92">
         <v>10000</v>
       </c>
       <c r="D92">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2365,13 +2365,13 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>2780</v>
+        <v>30000</v>
       </c>
       <c r="C93">
         <v>10000</v>
       </c>
       <c r="D93">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2379,13 +2379,13 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>2810</v>
+        <v>30000</v>
       </c>
       <c r="C94">
         <v>10000</v>
       </c>
       <c r="D94">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2393,13 +2393,13 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>2840</v>
+        <v>30000</v>
       </c>
       <c r="C95">
         <v>10000</v>
       </c>
       <c r="D95">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2407,13 +2407,13 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>2870</v>
+        <v>30000</v>
       </c>
       <c r="C96">
         <v>10000</v>
       </c>
       <c r="D96">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2421,13 +2421,13 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>2900</v>
+        <v>30000</v>
       </c>
       <c r="C97">
         <v>10000</v>
       </c>
       <c r="D97">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2435,13 +2435,13 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>2930</v>
+        <v>30000</v>
       </c>
       <c r="C98">
         <v>10000</v>
       </c>
       <c r="D98">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2449,13 +2449,13 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>2960</v>
+        <v>30000</v>
       </c>
       <c r="C99">
         <v>10000</v>
       </c>
       <c r="D99">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2463,13 +2463,13 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>2990</v>
+        <v>30000</v>
       </c>
       <c r="C100">
         <v>10000</v>
       </c>
       <c r="D100">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2477,13 +2477,13 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>3020</v>
+        <v>30000</v>
       </c>
       <c r="C101">
         <v>10000</v>
       </c>
       <c r="D101">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2491,13 +2491,13 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>3050</v>
+        <v>30000</v>
       </c>
       <c r="C102">
         <v>10000</v>
       </c>
       <c r="D102">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2505,13 +2505,13 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>3080</v>
+        <v>30000</v>
       </c>
       <c r="C103">
         <v>10000</v>
       </c>
       <c r="D103">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2519,13 +2519,13 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>3110</v>
+        <v>30000</v>
       </c>
       <c r="C104">
         <v>10000</v>
       </c>
       <c r="D104">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2533,13 +2533,13 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>3140</v>
+        <v>30000</v>
       </c>
       <c r="C105">
         <v>10000</v>
       </c>
       <c r="D105">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2547,13 +2547,13 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>3170</v>
+        <v>30000</v>
       </c>
       <c r="C106">
         <v>10000</v>
       </c>
       <c r="D106">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2561,13 +2561,13 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>3200</v>
+        <v>30000</v>
       </c>
       <c r="C107">
         <v>10000</v>
       </c>
       <c r="D107">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2575,13 +2575,13 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>3230</v>
+        <v>30000</v>
       </c>
       <c r="C108">
         <v>10000</v>
       </c>
       <c r="D108">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2589,13 +2589,13 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>3260</v>
+        <v>30000</v>
       </c>
       <c r="C109">
         <v>10000</v>
       </c>
       <c r="D109">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2603,13 +2603,13 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>3290</v>
+        <v>30000</v>
       </c>
       <c r="C110">
         <v>10000</v>
       </c>
       <c r="D110">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2617,13 +2617,13 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>3320</v>
+        <v>30000</v>
       </c>
       <c r="C111">
         <v>10000</v>
       </c>
       <c r="D111">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2631,13 +2631,13 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>3350</v>
+        <v>30000</v>
       </c>
       <c r="C112">
         <v>10000</v>
       </c>
       <c r="D112">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2645,13 +2645,13 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>3380</v>
+        <v>30000</v>
       </c>
       <c r="C113">
         <v>10000</v>
       </c>
       <c r="D113">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2659,13 +2659,13 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>3410</v>
+        <v>30000</v>
       </c>
       <c r="C114">
         <v>10000</v>
       </c>
       <c r="D114">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2673,13 +2673,13 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>3440</v>
+        <v>30000</v>
       </c>
       <c r="C115">
         <v>10000</v>
       </c>
       <c r="D115">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2687,13 +2687,13 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>3470</v>
+        <v>30000</v>
       </c>
       <c r="C116">
         <v>10000</v>
       </c>
       <c r="D116">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2701,13 +2701,13 @@
         <v>116</v>
       </c>
       <c r="B117">
-        <v>3500</v>
+        <v>30000</v>
       </c>
       <c r="C117">
         <v>10000</v>
       </c>
       <c r="D117">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2715,13 +2715,13 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>3530</v>
+        <v>30000</v>
       </c>
       <c r="C118">
         <v>10000</v>
       </c>
       <c r="D118">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2729,13 +2729,13 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>3560</v>
+        <v>30000</v>
       </c>
       <c r="C119">
         <v>10000</v>
       </c>
       <c r="D119">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2743,13 +2743,13 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>3590</v>
+        <v>30000</v>
       </c>
       <c r="C120">
         <v>10000</v>
       </c>
       <c r="D120">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2757,13 +2757,13 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>3620</v>
+        <v>30000</v>
       </c>
       <c r="C121">
         <v>10000</v>
       </c>
       <c r="D121">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2771,13 +2771,13 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>3650</v>
+        <v>30000</v>
       </c>
       <c r="C122">
         <v>10000</v>
       </c>
       <c r="D122">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2785,13 +2785,13 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>3680</v>
+        <v>30000</v>
       </c>
       <c r="C123">
         <v>10000</v>
       </c>
       <c r="D123">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2799,13 +2799,13 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>3710</v>
+        <v>30000</v>
       </c>
       <c r="C124">
         <v>10000</v>
       </c>
       <c r="D124">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2813,13 +2813,13 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>3740</v>
+        <v>30000</v>
       </c>
       <c r="C125">
         <v>10000</v>
       </c>
       <c r="D125">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2827,13 +2827,13 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>3770</v>
+        <v>30000</v>
       </c>
       <c r="C126">
         <v>10000</v>
       </c>
       <c r="D126">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2841,13 +2841,13 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>3800</v>
+        <v>30000</v>
       </c>
       <c r="C127">
         <v>10000</v>
       </c>
       <c r="D127">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2855,13 +2855,13 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>3830</v>
+        <v>30000</v>
       </c>
       <c r="C128">
         <v>10000</v>
       </c>
       <c r="D128">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2869,13 +2869,13 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>3860</v>
+        <v>30000</v>
       </c>
       <c r="C129">
         <v>10000</v>
       </c>
       <c r="D129">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2883,13 +2883,13 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>3890</v>
+        <v>30000</v>
       </c>
       <c r="C130">
         <v>10000</v>
       </c>
       <c r="D130">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2897,13 +2897,13 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>3920</v>
+        <v>30000</v>
       </c>
       <c r="C131">
         <v>10000</v>
       </c>
       <c r="D131">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2911,13 +2911,13 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>3950</v>
+        <v>30000</v>
       </c>
       <c r="C132">
         <v>10000</v>
       </c>
       <c r="D132">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2925,13 +2925,13 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>3980</v>
+        <v>30000</v>
       </c>
       <c r="C133">
         <v>10000</v>
       </c>
       <c r="D133">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2939,13 +2939,13 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>4010</v>
+        <v>30000</v>
       </c>
       <c r="C134">
         <v>10000</v>
       </c>
       <c r="D134">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2953,13 +2953,13 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>4040</v>
+        <v>30000</v>
       </c>
       <c r="C135">
         <v>10000</v>
       </c>
       <c r="D135">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2967,13 +2967,13 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>4070</v>
+        <v>30000</v>
       </c>
       <c r="C136">
         <v>10000</v>
       </c>
       <c r="D136">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2981,13 +2981,13 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>4100</v>
+        <v>30000</v>
       </c>
       <c r="C137">
         <v>10000</v>
       </c>
       <c r="D137">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2995,13 +2995,13 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>4130</v>
+        <v>30000</v>
       </c>
       <c r="C138">
         <v>10000</v>
       </c>
       <c r="D138">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3009,13 +3009,13 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>4160</v>
+        <v>30000</v>
       </c>
       <c r="C139">
         <v>10000</v>
       </c>
       <c r="D139">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3023,13 +3023,13 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>4190</v>
+        <v>30000</v>
       </c>
       <c r="C140">
         <v>10000</v>
       </c>
       <c r="D140">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3037,13 +3037,13 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>4220</v>
+        <v>30000</v>
       </c>
       <c r="C141">
         <v>10000</v>
       </c>
       <c r="D141">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3051,13 +3051,13 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>4250</v>
+        <v>30000</v>
       </c>
       <c r="C142">
         <v>10000</v>
       </c>
       <c r="D142">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3065,13 +3065,13 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>4280</v>
+        <v>30000</v>
       </c>
       <c r="C143">
         <v>10000</v>
       </c>
       <c r="D143">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3079,13 +3079,13 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>4310</v>
+        <v>30000</v>
       </c>
       <c r="C144">
         <v>10000</v>
       </c>
       <c r="D144">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3093,13 +3093,13 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>4340</v>
+        <v>30000</v>
       </c>
       <c r="C145">
         <v>10000</v>
       </c>
       <c r="D145">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3107,13 +3107,13 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>4370</v>
+        <v>30000</v>
       </c>
       <c r="C146">
         <v>10000</v>
       </c>
       <c r="D146">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3121,13 +3121,13 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>4400</v>
+        <v>30000</v>
       </c>
       <c r="C147">
         <v>10000</v>
       </c>
       <c r="D147">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3135,13 +3135,13 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>4430</v>
+        <v>30000</v>
       </c>
       <c r="C148">
         <v>10000</v>
       </c>
       <c r="D148">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3149,13 +3149,13 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>4460</v>
+        <v>30000</v>
       </c>
       <c r="C149">
         <v>10000</v>
       </c>
       <c r="D149">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3163,13 +3163,13 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>4490</v>
+        <v>30000</v>
       </c>
       <c r="C150">
         <v>10000</v>
       </c>
       <c r="D150">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3177,13 +3177,13 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>4520</v>
+        <v>30000</v>
       </c>
       <c r="C151">
         <v>10000</v>
       </c>
       <c r="D151">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3191,13 +3191,13 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>4550</v>
+        <v>30000</v>
       </c>
       <c r="C152">
         <v>10000</v>
       </c>
       <c r="D152">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3205,13 +3205,13 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>4580</v>
+        <v>30000</v>
       </c>
       <c r="C153">
         <v>10000</v>
       </c>
       <c r="D153">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3219,13 +3219,13 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>4610</v>
+        <v>30000</v>
       </c>
       <c r="C154">
         <v>10000</v>
       </c>
       <c r="D154">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3233,13 +3233,13 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>4640</v>
+        <v>30000</v>
       </c>
       <c r="C155">
         <v>10000</v>
       </c>
       <c r="D155">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3247,13 +3247,13 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>4670</v>
+        <v>30000</v>
       </c>
       <c r="C156">
         <v>10000</v>
       </c>
       <c r="D156">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3261,13 +3261,13 @@
         <v>156</v>
       </c>
       <c r="B157">
-        <v>4700</v>
+        <v>30000</v>
       </c>
       <c r="C157">
         <v>10000</v>
       </c>
       <c r="D157">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3275,13 +3275,13 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>4730</v>
+        <v>30000</v>
       </c>
       <c r="C158">
         <v>10000</v>
       </c>
       <c r="D158">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3289,13 +3289,13 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>4760</v>
+        <v>30000</v>
       </c>
       <c r="C159">
         <v>10000</v>
       </c>
       <c r="D159">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3303,13 +3303,13 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>4790</v>
+        <v>30000</v>
       </c>
       <c r="C160">
         <v>10000</v>
       </c>
       <c r="D160">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3317,13 +3317,13 @@
         <v>160</v>
       </c>
       <c r="B161">
-        <v>4820</v>
+        <v>30000</v>
       </c>
       <c r="C161">
         <v>10000</v>
       </c>
       <c r="D161">
-        <v>100000</v>
+        <v>30000</v>
       </c>
     </row>
   </sheetData>

--- a/Table/Table_xls/x循环任务/x循环任务-任性一下花费.xlsx
+++ b/Table/Table_xls/x循环任务/x循环任务-任性一下花费.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -93,37 +93,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -136,53 +113,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,9 +136,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,7 +168,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,16 +227,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,7 +270,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,127 +438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -420,37 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,45 +461,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -544,6 +505,47 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -553,11 +555,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,133 +581,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,12 +1064,12 @@
   <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B161"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="11.125" customWidth="1"/>
+    <col min="3" max="3" width="11.1296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3343,7 +3343,7 @@
       <selection activeCell="C1" sqref="C1:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="3:3">
       <c r="C1" t="s">
@@ -3374,7 +3374,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>

--- a/Table/Table_xls/x循环任务/x循环任务-任性一下花费.xlsx
+++ b/Table/Table_xls/x循环任务/x循环任务-任性一下花费.xlsx
@@ -92,8 +92,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -106,92 +106,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -207,7 +123,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,8 +188,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,15 +213,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,13 +270,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,7 +426,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,151 +450,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,26 +464,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,28 +503,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,8 +536,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,8 +556,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,10 +569,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,133 +581,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:D161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1094,10 +1094,10 @@
         <v>30000</v>
       </c>
       <c r="C2">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="D2">
-        <v>30000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1108,10 +1108,12 @@
         <v>30000</v>
       </c>
       <c r="C3">
-        <v>10000</v>
+        <f>C2+10</f>
+        <v>110</v>
       </c>
       <c r="D3">
-        <v>30000</v>
+        <f>D2+100</f>
+        <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1122,10 +1124,12 @@
         <v>30000</v>
       </c>
       <c r="C4">
-        <v>10000</v>
+        <f t="shared" ref="C4:C35" si="0">C3+10</f>
+        <v>120</v>
       </c>
       <c r="D4">
-        <v>30000</v>
+        <f t="shared" ref="D4:D35" si="1">D3+100</f>
+        <v>2200</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1136,10 +1140,12 @@
         <v>30000</v>
       </c>
       <c r="C5">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>130</v>
       </c>
       <c r="D5">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>2300</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1150,10 +1156,12 @@
         <v>30000</v>
       </c>
       <c r="C6">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>140</v>
       </c>
       <c r="D6">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>2400</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1164,10 +1172,12 @@
         <v>30000</v>
       </c>
       <c r="C7">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>150</v>
       </c>
       <c r="D7">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>2500</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1178,10 +1188,12 @@
         <v>30000</v>
       </c>
       <c r="C8">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>160</v>
       </c>
       <c r="D8">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>2600</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1192,10 +1204,12 @@
         <v>30000</v>
       </c>
       <c r="C9">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>170</v>
       </c>
       <c r="D9">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>2700</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1206,10 +1220,12 @@
         <v>30000</v>
       </c>
       <c r="C10">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>180</v>
       </c>
       <c r="D10">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>2800</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1220,10 +1236,12 @@
         <v>30000</v>
       </c>
       <c r="C11">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>190</v>
       </c>
       <c r="D11">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>2900</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1234,10 +1252,12 @@
         <v>30000</v>
       </c>
       <c r="C12">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>200</v>
       </c>
       <c r="D12">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>3000</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1248,10 +1268,12 @@
         <v>30000</v>
       </c>
       <c r="C13">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>210</v>
       </c>
       <c r="D13">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>3100</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1262,10 +1284,12 @@
         <v>30000</v>
       </c>
       <c r="C14">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>220</v>
       </c>
       <c r="D14">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>3200</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1276,10 +1300,12 @@
         <v>30000</v>
       </c>
       <c r="C15">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>230</v>
       </c>
       <c r="D15">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>3300</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1290,10 +1316,12 @@
         <v>30000</v>
       </c>
       <c r="C16">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>240</v>
       </c>
       <c r="D16">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>3400</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1304,10 +1332,12 @@
         <v>30000</v>
       </c>
       <c r="C17">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>250</v>
       </c>
       <c r="D17">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>3500</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1318,10 +1348,12 @@
         <v>30000</v>
       </c>
       <c r="C18">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>260</v>
       </c>
       <c r="D18">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>3600</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1332,10 +1364,12 @@
         <v>30000</v>
       </c>
       <c r="C19">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>270</v>
       </c>
       <c r="D19">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>3700</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1346,10 +1380,12 @@
         <v>30000</v>
       </c>
       <c r="C20">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>280</v>
       </c>
       <c r="D20">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>3800</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1360,10 +1396,12 @@
         <v>30000</v>
       </c>
       <c r="C21">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>290</v>
       </c>
       <c r="D21">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>3900</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1374,10 +1412,12 @@
         <v>30000</v>
       </c>
       <c r="C22">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>300</v>
       </c>
       <c r="D22">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>4000</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1388,10 +1428,12 @@
         <v>30000</v>
       </c>
       <c r="C23">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>310</v>
       </c>
       <c r="D23">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>4100</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1402,10 +1444,12 @@
         <v>30000</v>
       </c>
       <c r="C24">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>320</v>
       </c>
       <c r="D24">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>4200</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1416,10 +1460,12 @@
         <v>30000</v>
       </c>
       <c r="C25">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>330</v>
       </c>
       <c r="D25">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>4300</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1430,10 +1476,12 @@
         <v>30000</v>
       </c>
       <c r="C26">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>340</v>
       </c>
       <c r="D26">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>4400</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1444,10 +1492,12 @@
         <v>30000</v>
       </c>
       <c r="C27">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>350</v>
       </c>
       <c r="D27">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>4500</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1458,10 +1508,12 @@
         <v>30000</v>
       </c>
       <c r="C28">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>360</v>
       </c>
       <c r="D28">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>4600</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1472,10 +1524,12 @@
         <v>30000</v>
       </c>
       <c r="C29">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>370</v>
       </c>
       <c r="D29">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>4700</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1486,10 +1540,12 @@
         <v>30000</v>
       </c>
       <c r="C30">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>380</v>
       </c>
       <c r="D30">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>4800</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1500,10 +1556,12 @@
         <v>30000</v>
       </c>
       <c r="C31">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>390</v>
       </c>
       <c r="D31">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>4900</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1514,10 +1572,12 @@
         <v>30000</v>
       </c>
       <c r="C32">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>400</v>
       </c>
       <c r="D32">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>5000</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1528,10 +1588,12 @@
         <v>30000</v>
       </c>
       <c r="C33">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>410</v>
       </c>
       <c r="D33">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>5100</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1542,10 +1604,12 @@
         <v>30000</v>
       </c>
       <c r="C34">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>420</v>
       </c>
       <c r="D34">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>5200</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1556,10 +1620,12 @@
         <v>30000</v>
       </c>
       <c r="C35">
-        <v>10000</v>
+        <f t="shared" si="0"/>
+        <v>430</v>
       </c>
       <c r="D35">
-        <v>30000</v>
+        <f t="shared" si="1"/>
+        <v>5300</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1570,10 +1636,12 @@
         <v>30000</v>
       </c>
       <c r="C36">
-        <v>10000</v>
+        <f t="shared" ref="C36:C67" si="2">C35+10</f>
+        <v>440</v>
       </c>
       <c r="D36">
-        <v>30000</v>
+        <f t="shared" ref="D36:D67" si="3">D35+100</f>
+        <v>5400</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1584,10 +1652,12 @@
         <v>30000</v>
       </c>
       <c r="C37">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>450</v>
       </c>
       <c r="D37">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>5500</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1598,10 +1668,12 @@
         <v>30000</v>
       </c>
       <c r="C38">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>460</v>
       </c>
       <c r="D38">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>5600</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1612,10 +1684,12 @@
         <v>30000</v>
       </c>
       <c r="C39">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>470</v>
       </c>
       <c r="D39">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>5700</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1626,10 +1700,12 @@
         <v>30000</v>
       </c>
       <c r="C40">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>480</v>
       </c>
       <c r="D40">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>5800</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1640,10 +1716,12 @@
         <v>30000</v>
       </c>
       <c r="C41">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>490</v>
       </c>
       <c r="D41">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>5900</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1654,10 +1732,12 @@
         <v>30000</v>
       </c>
       <c r="C42">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>500</v>
       </c>
       <c r="D42">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>6000</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1668,10 +1748,12 @@
         <v>30000</v>
       </c>
       <c r="C43">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>510</v>
       </c>
       <c r="D43">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>6100</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1682,10 +1764,12 @@
         <v>30000</v>
       </c>
       <c r="C44">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>520</v>
       </c>
       <c r="D44">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>6200</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1696,10 +1780,12 @@
         <v>30000</v>
       </c>
       <c r="C45">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>530</v>
       </c>
       <c r="D45">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>6300</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1710,10 +1796,12 @@
         <v>30000</v>
       </c>
       <c r="C46">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>540</v>
       </c>
       <c r="D46">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>6400</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1724,10 +1812,12 @@
         <v>30000</v>
       </c>
       <c r="C47">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>550</v>
       </c>
       <c r="D47">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>6500</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1738,10 +1828,12 @@
         <v>30000</v>
       </c>
       <c r="C48">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>560</v>
       </c>
       <c r="D48">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>6600</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1752,10 +1844,12 @@
         <v>30000</v>
       </c>
       <c r="C49">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>570</v>
       </c>
       <c r="D49">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>6700</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1766,10 +1860,12 @@
         <v>30000</v>
       </c>
       <c r="C50">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>580</v>
       </c>
       <c r="D50">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>6800</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1780,10 +1876,12 @@
         <v>30000</v>
       </c>
       <c r="C51">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>590</v>
       </c>
       <c r="D51">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>6900</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1794,10 +1892,12 @@
         <v>30000</v>
       </c>
       <c r="C52">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>600</v>
       </c>
       <c r="D52">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>7000</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1808,10 +1908,12 @@
         <v>30000</v>
       </c>
       <c r="C53">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>610</v>
       </c>
       <c r="D53">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>7100</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1822,10 +1924,12 @@
         <v>30000</v>
       </c>
       <c r="C54">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>620</v>
       </c>
       <c r="D54">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>7200</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1836,10 +1940,12 @@
         <v>30000</v>
       </c>
       <c r="C55">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>630</v>
       </c>
       <c r="D55">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>7300</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1850,10 +1956,12 @@
         <v>30000</v>
       </c>
       <c r="C56">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>640</v>
       </c>
       <c r="D56">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>7400</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1864,10 +1972,12 @@
         <v>30000</v>
       </c>
       <c r="C57">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>650</v>
       </c>
       <c r="D57">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>7500</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1878,10 +1988,12 @@
         <v>30000</v>
       </c>
       <c r="C58">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>660</v>
       </c>
       <c r="D58">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>7600</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1892,10 +2004,12 @@
         <v>30000</v>
       </c>
       <c r="C59">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>670</v>
       </c>
       <c r="D59">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>7700</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1906,10 +2020,12 @@
         <v>30000</v>
       </c>
       <c r="C60">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>680</v>
       </c>
       <c r="D60">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>7800</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1920,10 +2036,12 @@
         <v>30000</v>
       </c>
       <c r="C61">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>690</v>
       </c>
       <c r="D61">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>7900</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1934,10 +2052,12 @@
         <v>30000</v>
       </c>
       <c r="C62">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>700</v>
       </c>
       <c r="D62">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>8000</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1948,10 +2068,12 @@
         <v>30000</v>
       </c>
       <c r="C63">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>710</v>
       </c>
       <c r="D63">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>8100</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1962,10 +2084,12 @@
         <v>30000</v>
       </c>
       <c r="C64">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>720</v>
       </c>
       <c r="D64">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>8200</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1976,10 +2100,12 @@
         <v>30000</v>
       </c>
       <c r="C65">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>730</v>
       </c>
       <c r="D65">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>8300</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -1990,10 +2116,12 @@
         <v>30000</v>
       </c>
       <c r="C66">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>740</v>
       </c>
       <c r="D66">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>8400</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -2004,10 +2132,12 @@
         <v>30000</v>
       </c>
       <c r="C67">
-        <v>10000</v>
+        <f t="shared" si="2"/>
+        <v>750</v>
       </c>
       <c r="D67">
-        <v>30000</v>
+        <f t="shared" si="3"/>
+        <v>8500</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2018,10 +2148,12 @@
         <v>30000</v>
       </c>
       <c r="C68">
-        <v>10000</v>
+        <f t="shared" ref="C68:C99" si="4">C67+10</f>
+        <v>760</v>
       </c>
       <c r="D68">
-        <v>30000</v>
+        <f t="shared" ref="D68:D99" si="5">D67+100</f>
+        <v>8600</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2032,10 +2164,12 @@
         <v>30000</v>
       </c>
       <c r="C69">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>770</v>
       </c>
       <c r="D69">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>8700</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -2046,10 +2180,12 @@
         <v>30000</v>
       </c>
       <c r="C70">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>780</v>
       </c>
       <c r="D70">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>8800</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -2060,10 +2196,12 @@
         <v>30000</v>
       </c>
       <c r="C71">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>790</v>
       </c>
       <c r="D71">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>8900</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -2074,10 +2212,12 @@
         <v>30000</v>
       </c>
       <c r="C72">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>800</v>
       </c>
       <c r="D72">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>9000</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2088,10 +2228,12 @@
         <v>30000</v>
       </c>
       <c r="C73">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>810</v>
       </c>
       <c r="D73">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>9100</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2102,10 +2244,12 @@
         <v>30000</v>
       </c>
       <c r="C74">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>820</v>
       </c>
       <c r="D74">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>9200</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -2116,10 +2260,12 @@
         <v>30000</v>
       </c>
       <c r="C75">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>830</v>
       </c>
       <c r="D75">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>9300</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2130,10 +2276,12 @@
         <v>30000</v>
       </c>
       <c r="C76">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>840</v>
       </c>
       <c r="D76">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>9400</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -2144,10 +2292,12 @@
         <v>30000</v>
       </c>
       <c r="C77">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>850</v>
       </c>
       <c r="D77">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>9500</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2158,10 +2308,12 @@
         <v>30000</v>
       </c>
       <c r="C78">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>860</v>
       </c>
       <c r="D78">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>9600</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -2172,10 +2324,12 @@
         <v>30000</v>
       </c>
       <c r="C79">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>870</v>
       </c>
       <c r="D79">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>9700</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2186,10 +2340,12 @@
         <v>30000</v>
       </c>
       <c r="C80">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>880</v>
       </c>
       <c r="D80">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>9800</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -2200,10 +2356,12 @@
         <v>30000</v>
       </c>
       <c r="C81">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>890</v>
       </c>
       <c r="D81">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>9900</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -2214,10 +2372,12 @@
         <v>30000</v>
       </c>
       <c r="C82">
+        <f t="shared" si="4"/>
+        <v>900</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="5"/>
         <v>10000</v>
-      </c>
-      <c r="D82">
-        <v>30000</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -2228,10 +2388,12 @@
         <v>30000</v>
       </c>
       <c r="C83">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>910</v>
       </c>
       <c r="D83">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>10100</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -2242,10 +2404,12 @@
         <v>30000</v>
       </c>
       <c r="C84">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>920</v>
       </c>
       <c r="D84">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>10200</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2256,10 +2420,12 @@
         <v>30000</v>
       </c>
       <c r="C85">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>930</v>
       </c>
       <c r="D85">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>10300</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2270,10 +2436,12 @@
         <v>30000</v>
       </c>
       <c r="C86">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>940</v>
       </c>
       <c r="D86">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>10400</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2284,10 +2452,12 @@
         <v>30000</v>
       </c>
       <c r="C87">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>950</v>
       </c>
       <c r="D87">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>10500</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2298,10 +2468,12 @@
         <v>30000</v>
       </c>
       <c r="C88">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>960</v>
       </c>
       <c r="D88">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>10600</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2312,10 +2484,12 @@
         <v>30000</v>
       </c>
       <c r="C89">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>970</v>
       </c>
       <c r="D89">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>10700</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2326,10 +2500,12 @@
         <v>30000</v>
       </c>
       <c r="C90">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>980</v>
       </c>
       <c r="D90">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>10800</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -2340,10 +2516,12 @@
         <v>30000</v>
       </c>
       <c r="C91">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>990</v>
       </c>
       <c r="D91">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>10900</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -2354,10 +2532,12 @@
         <v>30000</v>
       </c>
       <c r="C92">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>1000</v>
       </c>
       <c r="D92">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>11000</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -2368,10 +2548,12 @@
         <v>30000</v>
       </c>
       <c r="C93">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>1010</v>
       </c>
       <c r="D93">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>11100</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -2382,10 +2564,12 @@
         <v>30000</v>
       </c>
       <c r="C94">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>1020</v>
       </c>
       <c r="D94">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>11200</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -2396,10 +2580,12 @@
         <v>30000</v>
       </c>
       <c r="C95">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>1030</v>
       </c>
       <c r="D95">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>11300</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -2410,10 +2596,12 @@
         <v>30000</v>
       </c>
       <c r="C96">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>1040</v>
       </c>
       <c r="D96">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>11400</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -2424,10 +2612,12 @@
         <v>30000</v>
       </c>
       <c r="C97">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>1050</v>
       </c>
       <c r="D97">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>11500</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -2438,10 +2628,12 @@
         <v>30000</v>
       </c>
       <c r="C98">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>1060</v>
       </c>
       <c r="D98">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>11600</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -2452,10 +2644,12 @@
         <v>30000</v>
       </c>
       <c r="C99">
-        <v>10000</v>
+        <f t="shared" si="4"/>
+        <v>1070</v>
       </c>
       <c r="D99">
-        <v>30000</v>
+        <f t="shared" si="5"/>
+        <v>11700</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -2466,10 +2660,12 @@
         <v>30000</v>
       </c>
       <c r="C100">
-        <v>10000</v>
+        <f t="shared" ref="C100:C131" si="6">C99+10</f>
+        <v>1080</v>
       </c>
       <c r="D100">
-        <v>30000</v>
+        <f t="shared" ref="D100:D131" si="7">D99+100</f>
+        <v>11800</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -2480,10 +2676,12 @@
         <v>30000</v>
       </c>
       <c r="C101">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1090</v>
       </c>
       <c r="D101">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>11900</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -2494,10 +2692,12 @@
         <v>30000</v>
       </c>
       <c r="C102">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1100</v>
       </c>
       <c r="D102">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>12000</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -2508,10 +2708,12 @@
         <v>30000</v>
       </c>
       <c r="C103">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1110</v>
       </c>
       <c r="D103">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>12100</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -2522,10 +2724,12 @@
         <v>30000</v>
       </c>
       <c r="C104">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1120</v>
       </c>
       <c r="D104">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>12200</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -2536,10 +2740,12 @@
         <v>30000</v>
       </c>
       <c r="C105">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1130</v>
       </c>
       <c r="D105">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>12300</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -2550,10 +2756,12 @@
         <v>30000</v>
       </c>
       <c r="C106">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1140</v>
       </c>
       <c r="D106">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>12400</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -2564,10 +2772,12 @@
         <v>30000</v>
       </c>
       <c r="C107">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1150</v>
       </c>
       <c r="D107">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>12500</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -2578,10 +2788,12 @@
         <v>30000</v>
       </c>
       <c r="C108">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1160</v>
       </c>
       <c r="D108">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>12600</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -2592,10 +2804,12 @@
         <v>30000</v>
       </c>
       <c r="C109">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1170</v>
       </c>
       <c r="D109">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>12700</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2606,10 +2820,12 @@
         <v>30000</v>
       </c>
       <c r="C110">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1180</v>
       </c>
       <c r="D110">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>12800</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -2620,10 +2836,12 @@
         <v>30000</v>
       </c>
       <c r="C111">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1190</v>
       </c>
       <c r="D111">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>12900</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -2634,10 +2852,12 @@
         <v>30000</v>
       </c>
       <c r="C112">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1200</v>
       </c>
       <c r="D112">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>13000</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -2648,10 +2868,12 @@
         <v>30000</v>
       </c>
       <c r="C113">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1210</v>
       </c>
       <c r="D113">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>13100</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -2662,10 +2884,12 @@
         <v>30000</v>
       </c>
       <c r="C114">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1220</v>
       </c>
       <c r="D114">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>13200</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -2676,10 +2900,12 @@
         <v>30000</v>
       </c>
       <c r="C115">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1230</v>
       </c>
       <c r="D115">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>13300</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -2690,10 +2916,12 @@
         <v>30000</v>
       </c>
       <c r="C116">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1240</v>
       </c>
       <c r="D116">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>13400</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -2704,10 +2932,12 @@
         <v>30000</v>
       </c>
       <c r="C117">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1250</v>
       </c>
       <c r="D117">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>13500</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2718,10 +2948,12 @@
         <v>30000</v>
       </c>
       <c r="C118">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1260</v>
       </c>
       <c r="D118">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>13600</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -2732,10 +2964,12 @@
         <v>30000</v>
       </c>
       <c r="C119">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1270</v>
       </c>
       <c r="D119">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>13700</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -2746,10 +2980,12 @@
         <v>30000</v>
       </c>
       <c r="C120">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1280</v>
       </c>
       <c r="D120">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>13800</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -2760,10 +2996,12 @@
         <v>30000</v>
       </c>
       <c r="C121">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1290</v>
       </c>
       <c r="D121">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>13900</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -2774,10 +3012,12 @@
         <v>30000</v>
       </c>
       <c r="C122">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1300</v>
       </c>
       <c r="D122">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>14000</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -2788,10 +3028,12 @@
         <v>30000</v>
       </c>
       <c r="C123">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1310</v>
       </c>
       <c r="D123">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>14100</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -2802,10 +3044,12 @@
         <v>30000</v>
       </c>
       <c r="C124">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1320</v>
       </c>
       <c r="D124">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>14200</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -2816,10 +3060,12 @@
         <v>30000</v>
       </c>
       <c r="C125">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1330</v>
       </c>
       <c r="D125">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>14300</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -2830,10 +3076,12 @@
         <v>30000</v>
       </c>
       <c r="C126">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1340</v>
       </c>
       <c r="D126">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>14400</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -2844,10 +3092,12 @@
         <v>30000</v>
       </c>
       <c r="C127">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1350</v>
       </c>
       <c r="D127">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>14500</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -2858,10 +3108,12 @@
         <v>30000</v>
       </c>
       <c r="C128">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1360</v>
       </c>
       <c r="D128">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>14600</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -2872,10 +3124,12 @@
         <v>30000</v>
       </c>
       <c r="C129">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1370</v>
       </c>
       <c r="D129">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>14700</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2886,10 +3140,12 @@
         <v>30000</v>
       </c>
       <c r="C130">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1380</v>
       </c>
       <c r="D130">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>14800</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2900,10 +3156,12 @@
         <v>30000</v>
       </c>
       <c r="C131">
-        <v>10000</v>
+        <f t="shared" si="6"/>
+        <v>1390</v>
       </c>
       <c r="D131">
-        <v>30000</v>
+        <f t="shared" si="7"/>
+        <v>14900</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2914,10 +3172,12 @@
         <v>30000</v>
       </c>
       <c r="C132">
-        <v>10000</v>
+        <f t="shared" ref="C132:C161" si="8">C131+10</f>
+        <v>1400</v>
       </c>
       <c r="D132">
-        <v>30000</v>
+        <f t="shared" ref="D132:D161" si="9">D131+100</f>
+        <v>15000</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2928,10 +3188,12 @@
         <v>30000</v>
       </c>
       <c r="C133">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1410</v>
       </c>
       <c r="D133">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>15100</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2942,10 +3204,12 @@
         <v>30000</v>
       </c>
       <c r="C134">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1420</v>
       </c>
       <c r="D134">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>15200</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2956,10 +3220,12 @@
         <v>30000</v>
       </c>
       <c r="C135">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1430</v>
       </c>
       <c r="D135">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>15300</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2970,10 +3236,12 @@
         <v>30000</v>
       </c>
       <c r="C136">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1440</v>
       </c>
       <c r="D136">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>15400</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2984,10 +3252,12 @@
         <v>30000</v>
       </c>
       <c r="C137">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1450</v>
       </c>
       <c r="D137">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>15500</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2998,10 +3268,12 @@
         <v>30000</v>
       </c>
       <c r="C138">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1460</v>
       </c>
       <c r="D138">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>15600</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -3012,10 +3284,12 @@
         <v>30000</v>
       </c>
       <c r="C139">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1470</v>
       </c>
       <c r="D139">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>15700</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -3026,10 +3300,12 @@
         <v>30000</v>
       </c>
       <c r="C140">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1480</v>
       </c>
       <c r="D140">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>15800</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -3040,10 +3316,12 @@
         <v>30000</v>
       </c>
       <c r="C141">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1490</v>
       </c>
       <c r="D141">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>15900</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -3054,10 +3332,12 @@
         <v>30000</v>
       </c>
       <c r="C142">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1500</v>
       </c>
       <c r="D142">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>16000</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -3068,10 +3348,12 @@
         <v>30000</v>
       </c>
       <c r="C143">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1510</v>
       </c>
       <c r="D143">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>16100</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -3082,10 +3364,12 @@
         <v>30000</v>
       </c>
       <c r="C144">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1520</v>
       </c>
       <c r="D144">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>16200</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -3096,10 +3380,12 @@
         <v>30000</v>
       </c>
       <c r="C145">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1530</v>
       </c>
       <c r="D145">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>16300</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -3110,10 +3396,12 @@
         <v>30000</v>
       </c>
       <c r="C146">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1540</v>
       </c>
       <c r="D146">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>16400</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -3124,10 +3412,12 @@
         <v>30000</v>
       </c>
       <c r="C147">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1550</v>
       </c>
       <c r="D147">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>16500</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -3138,10 +3428,12 @@
         <v>30000</v>
       </c>
       <c r="C148">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1560</v>
       </c>
       <c r="D148">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>16600</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -3152,10 +3444,12 @@
         <v>30000</v>
       </c>
       <c r="C149">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1570</v>
       </c>
       <c r="D149">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>16700</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -3166,10 +3460,12 @@
         <v>30000</v>
       </c>
       <c r="C150">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1580</v>
       </c>
       <c r="D150">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>16800</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -3180,10 +3476,12 @@
         <v>30000</v>
       </c>
       <c r="C151">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1590</v>
       </c>
       <c r="D151">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>16900</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -3194,10 +3492,12 @@
         <v>30000</v>
       </c>
       <c r="C152">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1600</v>
       </c>
       <c r="D152">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>17000</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -3208,10 +3508,12 @@
         <v>30000</v>
       </c>
       <c r="C153">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1610</v>
       </c>
       <c r="D153">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>17100</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -3222,10 +3524,12 @@
         <v>30000</v>
       </c>
       <c r="C154">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1620</v>
       </c>
       <c r="D154">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>17200</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -3236,10 +3540,12 @@
         <v>30000</v>
       </c>
       <c r="C155">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1630</v>
       </c>
       <c r="D155">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>17300</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -3250,10 +3556,12 @@
         <v>30000</v>
       </c>
       <c r="C156">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1640</v>
       </c>
       <c r="D156">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>17400</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -3264,10 +3572,12 @@
         <v>30000</v>
       </c>
       <c r="C157">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1650</v>
       </c>
       <c r="D157">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>17500</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3278,10 +3588,12 @@
         <v>30000</v>
       </c>
       <c r="C158">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1660</v>
       </c>
       <c r="D158">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>17600</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3292,10 +3604,12 @@
         <v>30000</v>
       </c>
       <c r="C159">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1670</v>
       </c>
       <c r="D159">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>17700</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3306,10 +3620,12 @@
         <v>30000</v>
       </c>
       <c r="C160">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1680</v>
       </c>
       <c r="D160">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>17800</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3320,10 +3636,12 @@
         <v>30000</v>
       </c>
       <c r="C161">
-        <v>10000</v>
+        <f t="shared" si="8"/>
+        <v>1690</v>
       </c>
       <c r="D161">
-        <v>30000</v>
+        <f t="shared" si="9"/>
+        <v>17900</v>
       </c>
     </row>
   </sheetData>
